--- a/SchedulingData/dynamic9/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_8.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.3</v>
+        <v>54.88</v>
       </c>
       <c r="E2" t="n">
-        <v>26.4</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.7</v>
+        <v>67.34</v>
       </c>
       <c r="E3" t="n">
-        <v>25.92</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>91.2</v>
+        <v>77.3</v>
       </c>
       <c r="E4" t="n">
-        <v>24.54</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>67.34</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3</v>
+        <v>157.74</v>
       </c>
       <c r="E5" t="n">
-        <v>26.36</v>
+        <v>21.496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48.3</v>
+        <v>54.88</v>
       </c>
       <c r="D6" t="n">
-        <v>103.04</v>
+        <v>122.68</v>
       </c>
       <c r="E6" t="n">
-        <v>23.016</v>
+        <v>22.032</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>131.98</v>
+        <v>71.7</v>
       </c>
       <c r="E7" t="n">
-        <v>21.592</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>29.88</v>
+        <v>48.4</v>
       </c>
       <c r="E8" t="n">
-        <v>27.712</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.7</v>
+        <v>48.4</v>
       </c>
       <c r="D9" t="n">
-        <v>123.9</v>
+        <v>129</v>
       </c>
       <c r="E9" t="n">
-        <v>22.88</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="10">
@@ -618,93 +618,93 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>103.04</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.16</v>
+        <v>73.92</v>
       </c>
       <c r="E10" t="n">
-        <v>19.224</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.3</v>
+        <v>73.92</v>
       </c>
       <c r="D11" t="n">
-        <v>145.72</v>
+        <v>138.82</v>
       </c>
       <c r="E11" t="n">
-        <v>21.668</v>
+        <v>21.888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>123.9</v>
+        <v>77.3</v>
       </c>
       <c r="D12" t="n">
-        <v>177.32</v>
+        <v>133.22</v>
       </c>
       <c r="E12" t="n">
-        <v>19.668</v>
+        <v>23.408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>177.32</v>
+        <v>71.7</v>
       </c>
       <c r="D13" t="n">
-        <v>239.92</v>
+        <v>125.12</v>
       </c>
       <c r="E13" t="n">
-        <v>16.008</v>
+        <v>23.748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>122.68</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6</v>
+        <v>172.32</v>
       </c>
       <c r="E14" t="n">
-        <v>25.84</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="15">
@@ -713,188 +713,188 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.88</v>
+        <v>172.32</v>
       </c>
       <c r="D15" t="n">
-        <v>90.28</v>
+        <v>230.02</v>
       </c>
       <c r="E15" t="n">
-        <v>23.292</v>
+        <v>15.048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>90.28</v>
+        <v>138.82</v>
       </c>
       <c r="D16" t="n">
-        <v>164.76</v>
+        <v>197.46</v>
       </c>
       <c r="E16" t="n">
-        <v>19.464</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.6</v>
+        <v>129</v>
       </c>
       <c r="D17" t="n">
-        <v>120.56</v>
+        <v>200.9</v>
       </c>
       <c r="E17" t="n">
-        <v>23.244</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>120.56</v>
+        <v>197.46</v>
       </c>
       <c r="D18" t="n">
-        <v>197.7</v>
+        <v>255.06</v>
       </c>
       <c r="E18" t="n">
-        <v>19.66</v>
+        <v>14.004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>131.98</v>
+        <v>133.22</v>
       </c>
       <c r="D19" t="n">
-        <v>185.82</v>
+        <v>182.44</v>
       </c>
       <c r="E19" t="n">
-        <v>17.848</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>197.7</v>
+        <v>182.44</v>
       </c>
       <c r="D20" t="n">
-        <v>261.28</v>
+        <v>231.32</v>
       </c>
       <c r="E20" t="n">
-        <v>16.932</v>
+        <v>17.328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>145.72</v>
+        <v>230.02</v>
       </c>
       <c r="D21" t="n">
-        <v>200</v>
+        <v>297.04</v>
       </c>
       <c r="E21" t="n">
-        <v>17.86</v>
+        <v>12.456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>157.16</v>
+        <v>200.9</v>
       </c>
       <c r="D22" t="n">
-        <v>198.38</v>
+        <v>257.04</v>
       </c>
       <c r="E22" t="n">
-        <v>16.232</v>
+        <v>12.836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>164.76</v>
+        <v>231.32</v>
       </c>
       <c r="D23" t="n">
-        <v>247.26</v>
+        <v>294.4</v>
       </c>
       <c r="E23" t="n">
-        <v>15.324</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>198.38</v>
+        <v>297.04</v>
       </c>
       <c r="D24" t="n">
-        <v>264.86</v>
+        <v>349.84</v>
       </c>
       <c r="E24" t="n">
-        <v>12.184</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>264.86</v>
+        <v>255.06</v>
       </c>
       <c r="D25" t="n">
-        <v>346.18</v>
+        <v>310.74</v>
       </c>
       <c r="E25" t="n">
-        <v>8.151999999999999</v>
+        <v>11.056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>247.26</v>
+        <v>125.12</v>
       </c>
       <c r="D26" t="n">
-        <v>312.06</v>
+        <v>176.9</v>
       </c>
       <c r="E26" t="n">
-        <v>11.944</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>239.92</v>
+        <v>257.04</v>
       </c>
       <c r="D27" t="n">
-        <v>281.16</v>
+        <v>312.82</v>
       </c>
       <c r="E27" t="n">
-        <v>12.524</v>
+        <v>9.868</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>261.28</v>
+        <v>294.4</v>
       </c>
       <c r="D28" t="n">
-        <v>353.48</v>
+        <v>336.56</v>
       </c>
       <c r="E28" t="n">
-        <v>12.792</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>185.82</v>
+        <v>157.74</v>
       </c>
       <c r="D29" t="n">
-        <v>251.22</v>
+        <v>232.84</v>
       </c>
       <c r="E29" t="n">
-        <v>12.928</v>
+        <v>17.076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>200</v>
+        <v>232.84</v>
       </c>
       <c r="D30" t="n">
-        <v>257.12</v>
+        <v>304.46</v>
       </c>
       <c r="E30" t="n">
-        <v>15.268</v>
+        <v>13.044</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281.16</v>
+        <v>176.9</v>
       </c>
       <c r="D31" t="n">
-        <v>336.94</v>
+        <v>270.88</v>
       </c>
       <c r="E31" t="n">
-        <v>9.555999999999999</v>
+        <v>15.872</v>
       </c>
     </row>
   </sheetData>
